--- a/database/data/data-prediksi/data-prediksi.xlsx
+++ b/database/data/data-prediksi/data-prediksi.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,65 +460,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FTHG</t>
+          <t>MaxH</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FTAG</t>
+          <t>MaxD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FTR</t>
+          <t>MaxA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MaxH</t>
+          <t>AvgH</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MaxD</t>
+          <t>AvgD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MaxA</t>
+          <t>AvgA</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AvgH</t>
+          <t>MaxAHH</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>AvgD</t>
+          <t>MaxAHA</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>AvgA</t>
+          <t>AvgAHH</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MaxAHH</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MaxAHA</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>AvgAHH</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>AvgAHA</t>
         </is>
@@ -527,2015 +512,2251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>St Truiden</t>
+          <t>Bradford</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gent</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.4</v>
+      </c>
       <c r="H2" t="n">
-        <v>3.88</v>
+        <v>2.15</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.36</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>3.28</v>
       </c>
       <c r="K2" t="n">
-        <v>3.69</v>
+        <v>1.88</v>
       </c>
       <c r="L2" t="n">
-        <v>3.83</v>
+        <v>1.98</v>
       </c>
       <c r="M2" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P2" t="n">
         <v>1.92</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mechelen</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.4</v>
+      </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="I3" t="n">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>3.27</v>
       </c>
       <c r="K3" t="n">
-        <v>2.43</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="M3" t="n">
-        <v>2.79</v>
+        <v>1.79</v>
       </c>
       <c r="N3" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Accrington</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Oud-Heverlee Leuven</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>Tranmere</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.88</v>
+      </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="K4" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>3.54</v>
+        <v>2.03</v>
       </c>
       <c r="M4" t="n">
-        <v>2.71</v>
+        <v>1.78</v>
       </c>
       <c r="N4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
       <c r="H5" t="n">
-        <v>1.98</v>
+        <v>2.51</v>
       </c>
       <c r="I5" t="n">
-        <v>3.81</v>
+        <v>3.29</v>
       </c>
       <c r="J5" t="n">
-        <v>3.98</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="L5" t="n">
-        <v>3.61</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>3.73</v>
+        <v>1.77</v>
       </c>
       <c r="N5" t="n">
         <v>1.98</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.89</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Genk</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.26</v>
+      </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>10.17</v>
       </c>
       <c r="I6" t="n">
-        <v>4.01</v>
+        <v>6.12</v>
       </c>
       <c r="J6" t="n">
-        <v>4.41</v>
+        <v>1.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.85</v>
+        <v>1.93</v>
       </c>
       <c r="M6" t="n">
-        <v>4.12</v>
+        <v>1.91</v>
       </c>
       <c r="N6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>St. Gilloise</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.52</v>
+      </c>
       <c r="H7" t="n">
-        <v>3.04</v>
+        <v>6.06</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.44</v>
+        <v>1.49</v>
       </c>
       <c r="K7" t="n">
-        <v>2.87</v>
+        <v>2.03</v>
       </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="M7" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="N7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.38</v>
+      </c>
       <c r="H8" t="n">
-        <v>1.52</v>
+        <v>2.91</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>3.46</v>
       </c>
       <c r="J8" t="n">
-        <v>7.5</v>
+        <v>2.32</v>
       </c>
       <c r="K8" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="L8" t="n">
-        <v>4.93</v>
+        <v>2.05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.78</v>
+        <v>1.78</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
       <c r="H9" t="n">
-        <v>2.81</v>
+        <v>1.22</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>6.13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>12.53</v>
       </c>
       <c r="K9" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>1.98</v>
       </c>
       <c r="M9" t="n">
-        <v>2.52</v>
+        <v>1.85</v>
       </c>
       <c r="N9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O9" t="n">
         <v>1.92</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
       <c r="H10" t="n">
-        <v>2.85</v>
+        <v>4.78</v>
       </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>3.98</v>
       </c>
       <c r="J10" t="n">
-        <v>2.51</v>
+        <v>1.66</v>
       </c>
       <c r="K10" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="L10" t="n">
-        <v>3.68</v>
+        <v>1.88</v>
       </c>
       <c r="M10" t="n">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="N10" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.54</v>
+      </c>
       <c r="H11" t="n">
-        <v>7.7</v>
+        <v>2.63</v>
       </c>
       <c r="I11" t="n">
-        <v>5.33</v>
+        <v>3.54</v>
       </c>
       <c r="J11" t="n">
-        <v>1.47</v>
+        <v>2.49</v>
       </c>
       <c r="K11" t="n">
-        <v>7.11</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>4.98</v>
+        <v>1.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.9</v>
+      </c>
       <c r="H12" t="n">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>3.87</v>
       </c>
       <c r="J12" t="n">
-        <v>9.5</v>
+        <v>4.55</v>
       </c>
       <c r="K12" t="n">
-        <v>1.31</v>
+        <v>1.98</v>
       </c>
       <c r="L12" t="n">
-        <v>6.11</v>
+        <v>1.97</v>
       </c>
       <c r="M12" t="n">
-        <v>8.44</v>
+        <v>1.87</v>
       </c>
       <c r="N12" t="n">
         <v>1.9</v>
       </c>
-      <c r="O12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.03</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.4</v>
+      </c>
       <c r="H13" t="n">
-        <v>7.1</v>
+        <v>2.12</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>3.44</v>
       </c>
       <c r="J13" t="n">
-        <v>1.48</v>
+        <v>3.32</v>
       </c>
       <c r="K13" t="n">
-        <v>6.65</v>
+        <v>1.88</v>
       </c>
       <c r="L13" t="n">
-        <v>4.95</v>
+        <v>1.98</v>
       </c>
       <c r="M13" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>3.72</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.31</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>1.94</v>
       </c>
       <c r="K14" t="n">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="L14" t="n">
-        <v>3.83</v>
+        <v>1.98</v>
       </c>
       <c r="M14" t="n">
-        <v>3.2</v>
+        <v>1.82</v>
       </c>
       <c r="N14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.35</v>
+      </c>
       <c r="H15" t="n">
-        <v>2.27</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.82</v>
+        <v>3.19</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="L15" t="n">
-        <v>3.65</v>
+        <v>1.9</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1.84</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.88</v>
+      </c>
       <c r="H16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.2</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.28</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.97</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
-        <v>3.16</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>2.41</v>
+        <v>1.76</v>
       </c>
       <c r="N16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Peterboro</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.42</v>
+      </c>
       <c r="H17" t="n">
-        <v>3.16</v>
+        <v>2.85</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>3.23</v>
       </c>
       <c r="J17" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="K17" t="n">
-        <v>3.04</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.89</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="N17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bradford</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.8</v>
+      </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="K18" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.29</v>
+        <v>1.95</v>
       </c>
       <c r="M18" t="n">
-        <v>2.94</v>
+        <v>1.83</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Colchester</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Doncaster</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.2</v>
+      </c>
       <c r="H19" t="n">
-        <v>3.41</v>
+        <v>2.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.72</v>
+        <v>2.96</v>
       </c>
       <c r="J19" t="n">
-        <v>2.15</v>
+        <v>3.02</v>
       </c>
       <c r="K19" t="n">
-        <v>3.24</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.54</v>
+        <v>1.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris SG</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.3</v>
+      </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>2.17</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>3.22</v>
       </c>
       <c r="J20" t="n">
-        <v>1.43</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>7.45</v>
+        <v>1.88</v>
       </c>
       <c r="L20" t="n">
-        <v>5.29</v>
+        <v>1.93</v>
       </c>
       <c r="M20" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="N20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nice</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+          <t>Pau FC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.75</v>
+      </c>
       <c r="H21" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="I21" t="n">
-        <v>3.57</v>
+        <v>3.84</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>4.43</v>
       </c>
       <c r="K21" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="L21" t="n">
-        <v>3.42</v>
+        <v>1.96</v>
       </c>
       <c r="M21" t="n">
-        <v>3.27</v>
+        <v>1.81</v>
       </c>
       <c r="N21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lille</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H22" t="n">
-        <v>2.34</v>
+        <v>1.43</v>
       </c>
       <c r="I22" t="n">
-        <v>3.81</v>
+        <v>4.39</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>6.44</v>
       </c>
       <c r="K22" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.59</v>
+        <v>1.8</v>
       </c>
       <c r="M22" t="n">
-        <v>3.03</v>
+        <v>1.94</v>
       </c>
       <c r="N22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Laval</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.57</v>
+      </c>
       <c r="H23" t="n">
-        <v>1.59</v>
+        <v>6.71</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>3.81</v>
       </c>
       <c r="J23" t="n">
-        <v>6.3</v>
+        <v>1.54</v>
       </c>
       <c r="K23" t="n">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="L23" t="n">
-        <v>4.05</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>5.75</v>
+        <v>1.84</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Concarneau</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.8</v>
+      </c>
       <c r="H24" t="n">
-        <v>2.41</v>
+        <v>2.61</v>
       </c>
       <c r="I24" t="n">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="K24" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="L24" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="M24" t="n">
-        <v>3.17</v>
+        <v>1.84</v>
       </c>
       <c r="N24" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.6</v>
+      </c>
       <c r="H25" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.88</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>5.64</v>
+        <v>6.03</v>
       </c>
       <c r="K25" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="L25" t="n">
-        <v>3.57</v>
+        <v>2.06</v>
       </c>
       <c r="M25" t="n">
-        <v>4.92</v>
+        <v>1.74</v>
       </c>
       <c r="N25" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Annecy</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.5</v>
+      </c>
       <c r="H26" t="n">
-        <v>2.42</v>
+        <v>1.44</v>
       </c>
       <c r="I26" t="n">
-        <v>3.32</v>
+        <v>4.32</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>7.42</v>
       </c>
       <c r="K26" t="n">
-        <v>2.29</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3.17</v>
+        <v>1.86</v>
       </c>
       <c r="M26" t="n">
-        <v>3.14</v>
+        <v>1.97</v>
       </c>
       <c r="N26" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>St Etienne</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.5</v>
+      </c>
       <c r="H27" t="n">
-        <v>3.92</v>
+        <v>1.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.48</v>
+        <v>4.04</v>
       </c>
       <c r="J27" t="n">
-        <v>2.09</v>
+        <v>6.86</v>
       </c>
       <c r="K27" t="n">
-        <v>3.66</v>
+        <v>1.93</v>
       </c>
       <c r="L27" t="n">
-        <v>3.29</v>
+        <v>1.96</v>
       </c>
       <c r="M27" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Angers</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
       <c r="H28" t="n">
-        <v>2.34</v>
+        <v>1.77</v>
       </c>
       <c r="I28" t="n">
-        <v>3.18</v>
+        <v>3.45</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>4.86</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="L28" t="n">
-        <v>3.02</v>
+        <v>1.83</v>
       </c>
       <c r="M28" t="n">
-        <v>3.4</v>
+        <v>1.99</v>
       </c>
       <c r="N28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Amiens</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
       <c r="H29" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="I29" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="J29" t="n">
-        <v>3.87</v>
+        <v>4.72</v>
       </c>
       <c r="K29" t="n">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="L29" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>3.59</v>
+        <v>1.81</v>
       </c>
       <c r="N29" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45405</v>
+        <v>45959</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Paris FC</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.5</v>
+      </c>
       <c r="H30" t="n">
-        <v>2.47</v>
+        <v>1.38</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>4.77</v>
       </c>
       <c r="J30" t="n">
-        <v>3.13</v>
+        <v>8.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.39</v>
+        <v>1.88</v>
       </c>
       <c r="L30" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="N30" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45405</v>
+        <v>45960</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pau FC</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.9</v>
+      </c>
       <c r="H31" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>3.44</v>
+        <v>3.17</v>
       </c>
       <c r="J31" t="n">
-        <v>3.07</v>
+        <v>2.83</v>
       </c>
       <c r="K31" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="L31" t="n">
-        <v>3.29</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="n">
-        <v>2.92</v>
+        <v>1.8</v>
       </c>
       <c r="N31" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45405</v>
+        <v>45960</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.15</v>
+      </c>
       <c r="H32" t="n">
-        <v>5.4</v>
+        <v>3.64</v>
       </c>
       <c r="I32" t="n">
-        <v>3.04</v>
+        <v>3.22</v>
       </c>
       <c r="J32" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="K32" t="n">
-        <v>4.83</v>
+        <v>2.08</v>
       </c>
       <c r="L32" t="n">
-        <v>2.93</v>
+        <v>1.83</v>
       </c>
       <c r="M32" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="N32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PAOK</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
       <c r="H33" t="n">
-        <v>17</v>
+        <v>1.97</v>
       </c>
       <c r="I33" t="n">
-        <v>7.5</v>
+        <v>3.27</v>
       </c>
       <c r="J33" t="n">
-        <v>1.22</v>
+        <v>3.68</v>
       </c>
       <c r="K33" t="n">
-        <v>13.88</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>6.69</v>
+        <v>1.83</v>
       </c>
       <c r="M33" t="n">
-        <v>1.18</v>
+        <v>1.93</v>
       </c>
       <c r="N33" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.4</v>
+      </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>2.34</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>2.96</v>
       </c>
       <c r="J34" t="n">
-        <v>1.47</v>
+        <v>3.13</v>
       </c>
       <c r="K34" t="n">
-        <v>6.75</v>
+        <v>2.05</v>
       </c>
       <c r="L34" t="n">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="M34" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="N34" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AEK</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>Virtus Entella</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.4</v>
+      </c>
       <c r="H35" t="n">
-        <v>1.98</v>
+        <v>2.19</v>
       </c>
       <c r="I35" t="n">
-        <v>3.65</v>
+        <v>3.07</v>
       </c>
       <c r="J35" t="n">
-        <v>4.33</v>
+        <v>3.28</v>
       </c>
       <c r="K35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="L35" t="n">
-        <v>3.46</v>
+        <v>1.9</v>
       </c>
       <c r="M35" t="n">
-        <v>3.94</v>
+        <v>1.84</v>
       </c>
       <c r="N35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Almere City</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.4</v>
+      </c>
       <c r="H36" t="n">
-        <v>1.3</v>
+        <v>2.21</v>
       </c>
       <c r="I36" t="n">
-        <v>5.9</v>
+        <v>3.08</v>
       </c>
       <c r="J36" t="n">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="L36" t="n">
-        <v>5.52</v>
+        <v>1.94</v>
       </c>
       <c r="M36" t="n">
-        <v>10.88</v>
+        <v>1.85</v>
       </c>
       <c r="N36" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Excelsior</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>Avellino</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.5</v>
+      </c>
       <c r="H37" t="n">
-        <v>1.33</v>
+        <v>2.86</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>3.06</v>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>2.44</v>
       </c>
       <c r="K37" t="n">
-        <v>1.28</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>5.92</v>
+        <v>1.75</v>
       </c>
       <c r="M37" t="n">
-        <v>9.25</v>
+        <v>2.04</v>
       </c>
       <c r="N37" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45407</v>
+        <v>45958</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.9</v>
+      </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>4.13</v>
       </c>
       <c r="I38" t="n">
-        <v>5.8</v>
+        <v>3.24</v>
       </c>
       <c r="J38" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="K38" t="n">
-        <v>7.22</v>
+        <v>1.93</v>
       </c>
       <c r="L38" t="n">
-        <v>5.37</v>
+        <v>1.9</v>
       </c>
       <c r="M38" t="n">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="N38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.75</v>
+      </c>
       <c r="H39" t="n">
-        <v>6.3</v>
+        <v>2.52</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>3.23</v>
       </c>
       <c r="J39" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="K39" t="n">
-        <v>5.59</v>
+        <v>1.85</v>
       </c>
       <c r="L39" t="n">
-        <v>4.58</v>
+        <v>1.98</v>
       </c>
       <c r="M39" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="N39" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O39" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>1.9</v>
       </c>
-      <c r="P39" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="F40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M40" t="n">
         <v>1.81</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SC0</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SC0</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SC0</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SC0</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SC0</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
